--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2887.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2887.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206834488724464</v>
+        <v>2.009892702102661</v>
       </c>
       <c r="B1">
-        <v>1.882915515362865</v>
+        <v>2.175233125686646</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.231827735900879</v>
       </c>
       <c r="D1">
-        <v>1.889792319418784</v>
+        <v>2.71663236618042</v>
       </c>
       <c r="E1">
-        <v>1.202810028188498</v>
+        <v>3.569836139678955</v>
       </c>
     </row>
   </sheetData>
